--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,1174 +35,1180 @@
     <t xml:space="preserve">ISS</t>
   </si>
   <si>
-    <t xml:space="preserve">2017-01-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-26</t>
+    <t xml:space="preserve">X2017.01.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.04.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.27</t>
   </si>
 </sst>
 </file>
@@ -9684,22 +9690,22 @@
         <v>360</v>
       </c>
       <c r="B355" t="n">
-        <v>-1.1364</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>-1.4188</v>
+        <v>0</v>
       </c>
       <c r="D355" t="n">
-        <v>-1.4486</v>
+        <v>0</v>
       </c>
       <c r="E355" t="n">
-        <v>0.3886</v>
+        <v>0</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>-0.0455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -9707,22 +9713,22 @@
         <v>361</v>
       </c>
       <c r="B356" t="n">
-        <v>0.5409</v>
+        <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>-0.0928</v>
+        <v>0</v>
       </c>
       <c r="D356" t="n">
-        <v>-0.2526</v>
+        <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>-1.9967</v>
+        <v>0</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>1.4117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -9730,22 +9736,22 @@
         <v>362</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.2017</v>
+        <v>0.5409</v>
       </c>
       <c r="C357" t="n">
-        <v>-0.8364</v>
+        <v>-0.0928</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.5526</v>
+        <v>-0.2526</v>
       </c>
       <c r="E357" t="n">
-        <v>-1.0395</v>
+        <v>-1.9967</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>-0.1347</v>
+        <v>1.4117</v>
       </c>
     </row>
     <row r="358">
@@ -9753,22 +9759,22 @@
         <v>363</v>
       </c>
       <c r="B358" t="n">
-        <v>1.1456</v>
+        <v>-0.2017</v>
       </c>
       <c r="C358" t="n">
-        <v>2.1556</v>
+        <v>-0.8364</v>
       </c>
       <c r="D358" t="n">
-        <v>0.3705</v>
+        <v>-0.5526</v>
       </c>
       <c r="E358" t="n">
-        <v>-0.5462</v>
+        <v>-1.0395</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>-0.7194</v>
+        <v>-0.1347</v>
       </c>
     </row>
     <row r="359">
@@ -9776,22 +9782,22 @@
         <v>364</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.0666</v>
+        <v>1.1456</v>
       </c>
       <c r="C359" t="n">
-        <v>0.367</v>
+        <v>2.1556</v>
       </c>
       <c r="D359" t="n">
-        <v>-0.4844</v>
+        <v>0.3705</v>
       </c>
       <c r="E359" t="n">
-        <v>2.2391</v>
+        <v>-0.5462</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>0.4076</v>
+        <v>-0.7194</v>
       </c>
     </row>
     <row r="360">
@@ -9799,22 +9805,22 @@
         <v>365</v>
       </c>
       <c r="B360" t="n">
-        <v>1.5333</v>
+        <v>-0.0666</v>
       </c>
       <c r="C360" t="n">
-        <v>-0.1371</v>
+        <v>0.367</v>
       </c>
       <c r="D360" t="n">
-        <v>-0.0927</v>
+        <v>-0.4844</v>
       </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>2.2391</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>0.1804</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="361">
@@ -9822,22 +9828,22 @@
         <v>366</v>
       </c>
       <c r="B361" t="n">
-        <v>-1.1162</v>
+        <v>1.5333</v>
       </c>
       <c r="C361" t="n">
-        <v>0.2746</v>
+        <v>-0.1371</v>
       </c>
       <c r="D361" t="n">
-        <v>0.4872</v>
+        <v>-0.0927</v>
       </c>
       <c r="E361" t="n">
-        <v>2.0455</v>
+        <v>0</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>0.1351</v>
+        <v>0.1804</v>
       </c>
     </row>
     <row r="362">
@@ -9845,22 +9851,22 @@
         <v>367</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.3984</v>
+        <v>-1.1162</v>
       </c>
       <c r="C362" t="n">
-        <v>-0.5933</v>
+        <v>0.2746</v>
       </c>
       <c r="D362" t="n">
-        <v>-1.2237</v>
+        <v>0.4872</v>
       </c>
       <c r="E362" t="n">
-        <v>-2.7738</v>
+        <v>2.0455</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1.8885</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="363">
@@ -9868,22 +9874,22 @@
         <v>368</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.7333</v>
+        <v>-0.3984</v>
       </c>
       <c r="C363" t="n">
-        <v>-2.112</v>
+        <v>-0.5933</v>
       </c>
       <c r="D363" t="n">
-        <v>-0.9818</v>
+        <v>-1.2237</v>
       </c>
       <c r="E363" t="n">
-        <v>-0.9579</v>
+        <v>-2.7738</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>-1.5887</v>
+        <v>1.8885</v>
       </c>
     </row>
     <row r="364">
@@ -9891,22 +9897,22 @@
         <v>369</v>
       </c>
       <c r="B364" t="n">
-        <v>0.4701</v>
+        <v>-0.7333</v>
       </c>
       <c r="C364" t="n">
-        <v>-1.1257</v>
+        <v>-2.112</v>
       </c>
       <c r="D364" t="n">
-        <v>-2.5732</v>
+        <v>-0.9818</v>
       </c>
       <c r="E364" t="n">
-        <v>0.9462</v>
+        <v>-0.9579</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>-0.0448</v>
+        <v>-1.5887</v>
       </c>
     </row>
     <row r="365">
@@ -9914,22 +9920,22 @@
         <v>370</v>
       </c>
       <c r="B365" t="n">
-        <v>0.4011</v>
+        <v>0.4701</v>
       </c>
       <c r="C365" t="n">
-        <v>-0.9962</v>
+        <v>-1.1257</v>
       </c>
       <c r="D365" t="n">
-        <v>-0.0727</v>
+        <v>-2.5732</v>
       </c>
       <c r="E365" t="n">
-        <v>5.603</v>
+        <v>0.9462</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>-0.0897</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="366">
@@ -9937,22 +9943,22 @@
         <v>371</v>
       </c>
       <c r="B366" t="n">
-        <v>0.466</v>
+        <v>0.4011</v>
       </c>
       <c r="C366" t="n">
-        <v>-1.4375</v>
+        <v>-0.9962</v>
       </c>
       <c r="D366" t="n">
-        <v>-3.4433</v>
+        <v>-0.0727</v>
       </c>
       <c r="E366" t="n">
-        <v>-2.5444</v>
+        <v>5.603</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>-0.5837</v>
+        <v>-0.0897</v>
       </c>
     </row>
     <row r="367">
@@ -9960,22 +9966,22 @@
         <v>372</v>
       </c>
       <c r="B367" t="n">
-        <v>0.9278</v>
+        <v>0.466</v>
       </c>
       <c r="C367" t="n">
-        <v>0.4861</v>
+        <v>-1.4375</v>
       </c>
       <c r="D367" t="n">
-        <v>-1.3059</v>
+        <v>-3.4433</v>
       </c>
       <c r="E367" t="n">
-        <v>0.6679</v>
+        <v>-2.5444</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1.4002</v>
+        <v>-0.5837</v>
       </c>
     </row>
     <row r="368">
@@ -9983,22 +9989,22 @@
         <v>373</v>
       </c>
       <c r="B368" t="n">
-        <v>-1.6415</v>
+        <v>0.9278</v>
       </c>
       <c r="C368" t="n">
-        <v>-1.4998</v>
+        <v>0.4861</v>
       </c>
       <c r="D368" t="n">
-        <v>-2.0356</v>
+        <v>-1.3059</v>
       </c>
       <c r="E368" t="n">
-        <v>0.9248</v>
+        <v>0.6679</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>-0.98</v>
+        <v>1.4002</v>
       </c>
     </row>
     <row r="369">
@@ -10006,22 +10012,22 @@
         <v>374</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.8011</v>
+        <v>-1.6415</v>
       </c>
       <c r="C369" t="n">
-        <v>-2.9224</v>
+        <v>-1.4998</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.2597</v>
+        <v>-2.0356</v>
       </c>
       <c r="E369" t="n">
-        <v>-3.6853</v>
+        <v>0.9248</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>-1.3495</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="370">
@@ -10029,22 +10035,22 @@
         <v>375</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.2019</v>
+        <v>-0.8011</v>
       </c>
       <c r="C370" t="n">
-        <v>0.4807</v>
+        <v>-2.9224</v>
       </c>
       <c r="D370" t="n">
-        <v>0.026</v>
+        <v>-0.2597</v>
       </c>
       <c r="E370" t="n">
-        <v>1.8201</v>
+        <v>-3.6853</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>0.0912</v>
+        <v>-1.3495</v>
       </c>
     </row>
     <row r="371">
@@ -10052,22 +10058,22 @@
         <v>376</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.2697</v>
+        <v>-0.2019</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>0.4807</v>
       </c>
       <c r="D371" t="n">
-        <v>-2.6295</v>
+        <v>0.026</v>
       </c>
       <c r="E371" t="n">
-        <v>-1.8485</v>
+        <v>1.8201</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>-1.5945</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="372">
@@ -10075,22 +10081,22 @@
         <v>377</v>
       </c>
       <c r="B372" t="n">
-        <v>1.2847</v>
+        <v>-0.2697</v>
       </c>
       <c r="C372" t="n">
-        <v>0.5791</v>
+        <v>0</v>
       </c>
       <c r="D372" t="n">
-        <v>2.1123</v>
+        <v>-2.6295</v>
       </c>
       <c r="E372" t="n">
-        <v>1.904</v>
+        <v>-1.8485</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>1.5278</v>
+        <v>-1.5945</v>
       </c>
     </row>
     <row r="373">
@@ -10098,22 +10104,22 @@
         <v>378</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.8011</v>
+        <v>1.2847</v>
       </c>
       <c r="C373" t="n">
-        <v>-0.1752</v>
+        <v>0.5791</v>
       </c>
       <c r="D373" t="n">
-        <v>-1.8068</v>
+        <v>2.1123</v>
       </c>
       <c r="E373" t="n">
-        <v>-0.528</v>
+        <v>1.904</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>-1.368</v>
+        <v>1.5278</v>
       </c>
     </row>
     <row r="374">
@@ -10121,22 +10127,22 @@
         <v>379</v>
       </c>
       <c r="B374" t="n">
-        <v>0.9421</v>
+        <v>-0.8011</v>
       </c>
       <c r="C374" t="n">
-        <v>1.003</v>
+        <v>-0.1752</v>
       </c>
       <c r="D374" t="n">
-        <v>0.5867</v>
+        <v>-1.8068</v>
       </c>
       <c r="E374" t="n">
-        <v>2.3377</v>
+        <v>-0.528</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>0.8784</v>
+        <v>-1.368</v>
       </c>
     </row>
     <row r="375">
@@ -10144,22 +10150,22 @@
         <v>380</v>
       </c>
       <c r="B375" t="n">
-        <v>0.8</v>
+        <v>0.9421</v>
       </c>
       <c r="C375" t="n">
-        <v>-2.0109</v>
+        <v>1.003</v>
       </c>
       <c r="D375" t="n">
-        <v>-1.7232</v>
+        <v>0.5867</v>
       </c>
       <c r="E375" t="n">
-        <v>1.3466</v>
+        <v>2.3377</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>-1.3749</v>
+        <v>0.8784</v>
       </c>
     </row>
     <row r="376">
@@ -10167,22 +10173,22 @@
         <v>381</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.1984</v>
+        <v>0.8</v>
       </c>
       <c r="C376" t="n">
-        <v>-2.6096</v>
+        <v>-2.0109</v>
       </c>
       <c r="D376" t="n">
-        <v>2.1041</v>
+        <v>-1.7232</v>
       </c>
       <c r="E376" t="n">
-        <v>1.3287</v>
+        <v>1.3466</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>0.7435</v>
+        <v>-1.3749</v>
       </c>
     </row>
     <row r="377">
@@ -10190,22 +10196,22 @@
         <v>382</v>
       </c>
       <c r="B377" t="n">
-        <v>0.2651</v>
+        <v>-0.1984</v>
       </c>
       <c r="C377" t="n">
-        <v>-0.8065</v>
+        <v>-2.6096</v>
       </c>
       <c r="D377" t="n">
-        <v>-2.4042</v>
+        <v>2.1041</v>
       </c>
       <c r="E377" t="n">
-        <v>-0.34</v>
+        <v>1.3287</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>1.5683</v>
+        <v>0.7435</v>
       </c>
     </row>
     <row r="378">
@@ -10213,22 +10219,22 @@
         <v>383</v>
       </c>
       <c r="B378" t="n">
-        <v>0.9914</v>
+        <v>0.2651</v>
       </c>
       <c r="C378" t="n">
-        <v>0.9441</v>
+        <v>-0.8065</v>
       </c>
       <c r="D378" t="n">
-        <v>1.2453</v>
+        <v>-2.4042</v>
       </c>
       <c r="E378" t="n">
-        <v>0.3899</v>
+        <v>-0.34</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1.0899</v>
+        <v>1.5683</v>
       </c>
     </row>
     <row r="379">
@@ -10236,22 +10242,22 @@
         <v>384</v>
       </c>
       <c r="B379" t="n">
-        <v>0.4581</v>
+        <v>0.9914</v>
       </c>
       <c r="C379" t="n">
-        <v>0.7015</v>
+        <v>0.9441</v>
       </c>
       <c r="D379" t="n">
-        <v>0.9626</v>
+        <v>1.2453</v>
       </c>
       <c r="E379" t="n">
-        <v>3.2524</v>
+        <v>0.3899</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>1.3477</v>
+        <v>1.0899</v>
       </c>
     </row>
     <row r="380">
@@ -10259,22 +10265,22 @@
         <v>385</v>
       </c>
       <c r="B380" t="n">
-        <v>1.811</v>
+        <v>0.4581</v>
       </c>
       <c r="C380" t="n">
-        <v>0.0774</v>
+        <v>0.7015</v>
       </c>
       <c r="D380" t="n">
-        <v>-1.3771</v>
+        <v>0.9626</v>
       </c>
       <c r="E380" t="n">
-        <v>-0.7522</v>
+        <v>3.2524</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>-0.7092</v>
+        <v>1.3477</v>
       </c>
     </row>
     <row r="381">
@@ -10282,22 +10288,22 @@
         <v>386</v>
       </c>
       <c r="B381" t="n">
-        <v>0.2587</v>
+        <v>1.811</v>
       </c>
       <c r="C381" t="n">
-        <v>0.5672</v>
+        <v>0.0774</v>
       </c>
       <c r="D381" t="n">
-        <v>1.3695</v>
+        <v>-1.3771</v>
       </c>
       <c r="E381" t="n">
-        <v>2.558</v>
+        <v>-0.7522</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>0.2232</v>
+        <v>-0.7092</v>
       </c>
     </row>
     <row r="382">
@@ -10305,22 +10311,22 @@
         <v>387</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.7742</v>
+        <v>0.2587</v>
       </c>
       <c r="C382" t="n">
-        <v>-0.564</v>
+        <v>0.5672</v>
       </c>
       <c r="D382" t="n">
-        <v>-0.2649</v>
+        <v>1.3695</v>
       </c>
       <c r="E382" t="n">
-        <v>0.2771</v>
+        <v>2.558</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>0.0891</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="383">
@@ -10328,22 +10334,22 @@
         <v>388</v>
       </c>
       <c r="B383" t="n">
-        <v>0.1951</v>
+        <v>-0.7742</v>
       </c>
       <c r="C383" t="n">
-        <v>-0.1031</v>
+        <v>-0.564</v>
       </c>
       <c r="D383" t="n">
-        <v>-0.2656</v>
+        <v>-0.2649</v>
       </c>
       <c r="E383" t="n">
-        <v>0.4146</v>
+        <v>0.2771</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>-0.7566</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="384">
@@ -10351,22 +10357,22 @@
         <v>389</v>
       </c>
       <c r="B384" t="n">
-        <v>1.7521</v>
+        <v>0.1951</v>
       </c>
       <c r="C384" t="n">
-        <v>0.6968</v>
+        <v>-0.1031</v>
       </c>
       <c r="D384" t="n">
-        <v>2.3702</v>
+        <v>-0.2656</v>
       </c>
       <c r="E384" t="n">
-        <v>2.2936</v>
+        <v>0.4146</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>-0.1794</v>
+        <v>-0.7566</v>
       </c>
     </row>
     <row r="385">
@@ -10374,22 +10380,22 @@
         <v>390</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.4464</v>
+        <v>1.7521</v>
       </c>
       <c r="C385" t="n">
-        <v>-9.1235</v>
+        <v>0.6968</v>
       </c>
       <c r="D385" t="n">
-        <v>0.5983</v>
+        <v>2.3702</v>
       </c>
       <c r="E385" t="n">
-        <v>1.1211</v>
+        <v>2.2936</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>0.1797</v>
+        <v>-0.1794</v>
       </c>
     </row>
     <row r="386">
@@ -10397,22 +10403,22 @@
         <v>391</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.7047</v>
+        <v>-0.4464</v>
       </c>
       <c r="C386" t="n">
-        <v>2.5945</v>
+        <v>-9.1235</v>
       </c>
       <c r="D386" t="n">
-        <v>-0.4138</v>
+        <v>0.5983</v>
       </c>
       <c r="E386" t="n">
-        <v>-0.2217</v>
+        <v>1.1211</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>2.1076</v>
+        <v>0.1797</v>
       </c>
     </row>
     <row r="387">
@@ -10420,22 +10426,22 @@
         <v>392</v>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>-0.7047</v>
       </c>
       <c r="C387" t="n">
-        <v>-0.6322</v>
+        <v>2.5945</v>
       </c>
       <c r="D387" t="n">
-        <v>-0.1298</v>
+        <v>-0.4138</v>
       </c>
       <c r="E387" t="n">
-        <v>1.0222</v>
+        <v>-0.2217</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>0.4831</v>
+        <v>2.1076</v>
       </c>
     </row>
     <row r="388">
@@ -10446,19 +10452,19 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1.7151</v>
+        <v>-0.6322</v>
       </c>
       <c r="D388" t="n">
-        <v>0.13</v>
+        <v>-0.1298</v>
       </c>
       <c r="E388" t="n">
-        <v>-1.1879</v>
+        <v>1.0222</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>-0.2185</v>
+        <v>0.4831</v>
       </c>
     </row>
     <row r="389">
@@ -10466,22 +10472,22 @@
         <v>394</v>
       </c>
       <c r="B389" t="n">
-        <v>-1.0968</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>1.3054</v>
+        <v>1.7151</v>
       </c>
       <c r="D389" t="n">
-        <v>2.0254</v>
+        <v>0.13</v>
       </c>
       <c r="E389" t="n">
-        <v>0.4898</v>
+        <v>-1.1879</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>-0.6132</v>
+        <v>-0.2185</v>
       </c>
     </row>
     <row r="390">
@@ -10489,22 +10495,22 @@
         <v>395</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.2609</v>
+        <v>-1.0968</v>
       </c>
       <c r="C390" t="n">
-        <v>-0.6711</v>
+        <v>1.3054</v>
       </c>
       <c r="D390" t="n">
-        <v>0.3309</v>
+        <v>2.0254</v>
       </c>
       <c r="E390" t="n">
-        <v>0.1329</v>
+        <v>0.4898</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>1.0577</v>
+        <v>-0.6132</v>
       </c>
     </row>
     <row r="391">
@@ -10512,22 +10518,68 @@
         <v>396</v>
       </c>
       <c r="B391" t="n">
+        <v>-0.2609</v>
+      </c>
+      <c r="C391" t="n">
+        <v>-0.6711</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0.3309</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0</v>
+      </c>
+      <c r="G391" t="n">
+        <v>1.0577</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>397</v>
+      </c>
+      <c r="B392" t="n">
         <v>0.7194</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C392" t="n">
         <v>1.2432</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D392" t="n">
         <v>3.2471</v>
       </c>
-      <c r="E391" t="n">
+      <c r="E392" t="n">
         <v>1.2389</v>
       </c>
-      <c r="F391" t="n">
-        <v>0</v>
-      </c>
-      <c r="G391" t="n">
+      <c r="F392" t="n">
+        <v>0</v>
+      </c>
+      <c r="G392" t="n">
         <v>1.3956</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>398</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.6494</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1.0811</v>
+      </c>
+      <c r="E393" t="n">
+        <v>-1.2675</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0</v>
+      </c>
+      <c r="G393" t="n">
+        <v>1.5484</v>
       </c>
     </row>
   </sheetData>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t xml:space="preserve">2018-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-02</t>
   </si>
 </sst>
 </file>
@@ -4108,6 +4111,29 @@
         <v>0.2099</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.3839</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-2.0788</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-1.6433</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-0.2716</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1.3825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,436 +35,442 @@
     <t xml:space="preserve">ISS</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-01-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-08-02</t>
+    <t xml:space="preserve">X2018.01.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.04.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.08.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.08.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.08.03</t>
   </si>
 </sst>
 </file>
@@ -3173,22 +3179,22 @@
         <v>109</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.1364</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.4188</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>-1.4486</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3886</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.0455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3196,22 +3202,22 @@
         <v>110</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5409</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.0928</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.2526</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>-1.9967</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1.4117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3219,22 +3225,22 @@
         <v>111</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.2017</v>
+        <v>0.5409</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.8364</v>
+        <v>-0.0928</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.5526</v>
+        <v>-0.2526</v>
       </c>
       <c r="E106" t="n">
-        <v>-1.0395</v>
+        <v>-1.9967</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.1347</v>
+        <v>1.4117</v>
       </c>
     </row>
     <row r="107">
@@ -3242,22 +3248,22 @@
         <v>112</v>
       </c>
       <c r="B107" t="n">
-        <v>1.1456</v>
+        <v>-0.2017</v>
       </c>
       <c r="C107" t="n">
-        <v>2.1556</v>
+        <v>-0.8364</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3705</v>
+        <v>-0.5526</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.5462</v>
+        <v>-1.0395</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.7194</v>
+        <v>-0.1347</v>
       </c>
     </row>
     <row r="108">
@@ -3265,22 +3271,22 @@
         <v>113</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.0666</v>
+        <v>1.1456</v>
       </c>
       <c r="C108" t="n">
-        <v>0.367</v>
+        <v>2.1556</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.4844</v>
+        <v>0.3705</v>
       </c>
       <c r="E108" t="n">
-        <v>2.2391</v>
+        <v>-0.5462</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4076</v>
+        <v>-0.7194</v>
       </c>
     </row>
     <row r="109">
@@ -3288,22 +3294,22 @@
         <v>114</v>
       </c>
       <c r="B109" t="n">
-        <v>1.5333</v>
+        <v>-0.0666</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.1371</v>
+        <v>0.367</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.0927</v>
+        <v>-0.4844</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>2.2391</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1804</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="110">
@@ -3311,22 +3317,22 @@
         <v>115</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.1162</v>
+        <v>1.5333</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2746</v>
+        <v>-0.1371</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4872</v>
+        <v>-0.0927</v>
       </c>
       <c r="E110" t="n">
-        <v>2.0455</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1351</v>
+        <v>0.1804</v>
       </c>
     </row>
     <row r="111">
@@ -3334,22 +3340,22 @@
         <v>116</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.3984</v>
+        <v>-1.1162</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.5933</v>
+        <v>0.2746</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.2237</v>
+        <v>0.4872</v>
       </c>
       <c r="E111" t="n">
-        <v>-2.7738</v>
+        <v>2.0455</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1.8885</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="112">
@@ -3357,22 +3363,22 @@
         <v>117</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.7333</v>
+        <v>-0.3984</v>
       </c>
       <c r="C112" t="n">
-        <v>-2.112</v>
+        <v>-0.5933</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.9818</v>
+        <v>-1.2237</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.9579</v>
+        <v>-2.7738</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>-1.5887</v>
+        <v>1.8885</v>
       </c>
     </row>
     <row r="113">
@@ -3380,22 +3386,22 @@
         <v>118</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4701</v>
+        <v>-0.7333</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.1257</v>
+        <v>-2.112</v>
       </c>
       <c r="D113" t="n">
-        <v>-2.5732</v>
+        <v>-0.9818</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9462</v>
+        <v>-0.9579</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.0448</v>
+        <v>-1.5887</v>
       </c>
     </row>
     <row r="114">
@@ -3403,22 +3409,22 @@
         <v>119</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4011</v>
+        <v>0.4701</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.9962</v>
+        <v>-1.1257</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.0727</v>
+        <v>-2.5732</v>
       </c>
       <c r="E114" t="n">
-        <v>5.603</v>
+        <v>0.9462</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.0897</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="115">
@@ -3426,22 +3432,22 @@
         <v>120</v>
       </c>
       <c r="B115" t="n">
-        <v>0.466</v>
+        <v>0.4011</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.4375</v>
+        <v>-0.9962</v>
       </c>
       <c r="D115" t="n">
-        <v>-3.4433</v>
+        <v>-0.0727</v>
       </c>
       <c r="E115" t="n">
-        <v>-2.5444</v>
+        <v>5.603</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.5837</v>
+        <v>-0.0897</v>
       </c>
     </row>
     <row r="116">
@@ -3449,22 +3455,22 @@
         <v>121</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9278</v>
+        <v>0.466</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4861</v>
+        <v>-1.4375</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.3059</v>
+        <v>-3.4433</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6679</v>
+        <v>-2.5444</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1.4002</v>
+        <v>-0.5837</v>
       </c>
     </row>
     <row r="117">
@@ -3472,22 +3478,22 @@
         <v>122</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.6415</v>
+        <v>0.9278</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.4998</v>
+        <v>0.4861</v>
       </c>
       <c r="D117" t="n">
-        <v>-2.0356</v>
+        <v>-1.3059</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9248</v>
+        <v>0.6679</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.98</v>
+        <v>1.4002</v>
       </c>
     </row>
     <row r="118">
@@ -3495,22 +3501,22 @@
         <v>123</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.8011</v>
+        <v>-1.6415</v>
       </c>
       <c r="C118" t="n">
-        <v>-2.9224</v>
+        <v>-1.4998</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.2597</v>
+        <v>-2.0356</v>
       </c>
       <c r="E118" t="n">
-        <v>-3.6853</v>
+        <v>0.9248</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>-1.3495</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="119">
@@ -3518,22 +3524,22 @@
         <v>124</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.2019</v>
+        <v>-0.8011</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4807</v>
+        <v>-2.9224</v>
       </c>
       <c r="D119" t="n">
-        <v>0.026</v>
+        <v>-0.2597</v>
       </c>
       <c r="E119" t="n">
-        <v>1.8201</v>
+        <v>-3.6853</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0912</v>
+        <v>-1.3495</v>
       </c>
     </row>
     <row r="120">
@@ -3541,22 +3547,22 @@
         <v>125</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.2697</v>
+        <v>-0.2019</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>0.4807</v>
       </c>
       <c r="D120" t="n">
-        <v>-2.6295</v>
+        <v>0.026</v>
       </c>
       <c r="E120" t="n">
-        <v>-1.8485</v>
+        <v>1.8201</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>-1.5945</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="121">
@@ -3564,22 +3570,22 @@
         <v>126</v>
       </c>
       <c r="B121" t="n">
-        <v>1.2847</v>
+        <v>-0.2697</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5791</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>2.1123</v>
+        <v>-2.6295</v>
       </c>
       <c r="E121" t="n">
-        <v>1.904</v>
+        <v>-1.8485</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>1.5278</v>
+        <v>-1.5945</v>
       </c>
     </row>
     <row r="122">
@@ -3587,22 +3593,22 @@
         <v>127</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.8011</v>
+        <v>1.2847</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.1752</v>
+        <v>0.5791</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.8068</v>
+        <v>2.1123</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.528</v>
+        <v>1.904</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>-1.368</v>
+        <v>1.5278</v>
       </c>
     </row>
     <row r="123">
@@ -3610,22 +3616,22 @@
         <v>128</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9421</v>
+        <v>-0.8011</v>
       </c>
       <c r="C123" t="n">
-        <v>1.003</v>
+        <v>-0.1752</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5867</v>
+        <v>-1.8068</v>
       </c>
       <c r="E123" t="n">
-        <v>2.3377</v>
+        <v>-0.528</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0.8784</v>
+        <v>-1.368</v>
       </c>
     </row>
     <row r="124">
@@ -3633,22 +3639,22 @@
         <v>129</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8</v>
+        <v>0.9421</v>
       </c>
       <c r="C124" t="n">
-        <v>-2.0109</v>
+        <v>1.003</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.7232</v>
+        <v>0.5867</v>
       </c>
       <c r="E124" t="n">
-        <v>1.3466</v>
+        <v>2.3377</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>-1.3749</v>
+        <v>0.8784</v>
       </c>
     </row>
     <row r="125">
@@ -3656,22 +3662,22 @@
         <v>130</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.1984</v>
+        <v>0.8</v>
       </c>
       <c r="C125" t="n">
-        <v>-2.6096</v>
+        <v>-2.0109</v>
       </c>
       <c r="D125" t="n">
-        <v>2.1041</v>
+        <v>-1.7232</v>
       </c>
       <c r="E125" t="n">
-        <v>1.3287</v>
+        <v>1.3466</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0.7435</v>
+        <v>-1.3749</v>
       </c>
     </row>
     <row r="126">
@@ -3679,22 +3685,22 @@
         <v>131</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2651</v>
+        <v>-0.1984</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.8065</v>
+        <v>-2.6096</v>
       </c>
       <c r="D126" t="n">
-        <v>-2.4042</v>
+        <v>2.1041</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.34</v>
+        <v>1.3287</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>1.5683</v>
+        <v>0.7435</v>
       </c>
     </row>
     <row r="127">
@@ -3702,22 +3708,22 @@
         <v>132</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9914</v>
+        <v>0.2651</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9441</v>
+        <v>-0.8065</v>
       </c>
       <c r="D127" t="n">
-        <v>1.2453</v>
+        <v>-2.4042</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3899</v>
+        <v>-0.34</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>1.0899</v>
+        <v>1.5683</v>
       </c>
     </row>
     <row r="128">
@@ -3725,22 +3731,22 @@
         <v>133</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4581</v>
+        <v>0.9914</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7015</v>
+        <v>0.9441</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9626</v>
+        <v>1.2453</v>
       </c>
       <c r="E128" t="n">
-        <v>3.2524</v>
+        <v>0.3899</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1.3477</v>
+        <v>1.0899</v>
       </c>
     </row>
     <row r="129">
@@ -3748,22 +3754,22 @@
         <v>134</v>
       </c>
       <c r="B129" t="n">
-        <v>1.811</v>
+        <v>0.4581</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0774</v>
+        <v>0.7015</v>
       </c>
       <c r="D129" t="n">
-        <v>-1.3771</v>
+        <v>0.9626</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.7522</v>
+        <v>3.2524</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.7092</v>
+        <v>1.3477</v>
       </c>
     </row>
     <row r="130">
@@ -3771,22 +3777,22 @@
         <v>135</v>
       </c>
       <c r="B130" t="n">
-        <v>0.2587</v>
+        <v>1.811</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5672</v>
+        <v>0.0774</v>
       </c>
       <c r="D130" t="n">
-        <v>1.3695</v>
+        <v>-1.3771</v>
       </c>
       <c r="E130" t="n">
-        <v>2.558</v>
+        <v>-0.7522</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0.2232</v>
+        <v>-0.7092</v>
       </c>
     </row>
     <row r="131">
@@ -3794,22 +3800,22 @@
         <v>136</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.7742</v>
+        <v>0.2587</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.564</v>
+        <v>0.5672</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.2649</v>
+        <v>1.3695</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2771</v>
+        <v>2.558</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0891</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="132">
@@ -3817,22 +3823,22 @@
         <v>137</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1951</v>
+        <v>-0.7742</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.1031</v>
+        <v>-0.564</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.2656</v>
+        <v>-0.2649</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4146</v>
+        <v>0.2771</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.7566</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="133">
@@ -3840,22 +3846,22 @@
         <v>138</v>
       </c>
       <c r="B133" t="n">
-        <v>1.7521</v>
+        <v>0.1951</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6968</v>
+        <v>-0.1031</v>
       </c>
       <c r="D133" t="n">
-        <v>2.3702</v>
+        <v>-0.2656</v>
       </c>
       <c r="E133" t="n">
-        <v>2.2936</v>
+        <v>0.4146</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.1794</v>
+        <v>-0.7566</v>
       </c>
     </row>
     <row r="134">
@@ -3863,22 +3869,22 @@
         <v>139</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.4464</v>
+        <v>1.7521</v>
       </c>
       <c r="C134" t="n">
-        <v>-9.1235</v>
+        <v>0.6968</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5983</v>
+        <v>2.3702</v>
       </c>
       <c r="E134" t="n">
-        <v>1.1211</v>
+        <v>2.2936</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1797</v>
+        <v>-0.1794</v>
       </c>
     </row>
     <row r="135">
@@ -3886,22 +3892,22 @@
         <v>140</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.7047</v>
+        <v>-0.4464</v>
       </c>
       <c r="C135" t="n">
-        <v>2.5945</v>
+        <v>-9.1235</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.4138</v>
+        <v>0.5983</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.2217</v>
+        <v>1.1211</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>2.1076</v>
+        <v>0.1797</v>
       </c>
     </row>
     <row r="136">
@@ -3909,22 +3915,22 @@
         <v>141</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>-0.7047</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.6322</v>
+        <v>2.5945</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.1298</v>
+        <v>-0.4138</v>
       </c>
       <c r="E136" t="n">
-        <v>1.0222</v>
+        <v>-0.2217</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0.4831</v>
+        <v>2.1076</v>
       </c>
     </row>
     <row r="137">
@@ -3935,19 +3941,19 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>1.7151</v>
+        <v>-0.6322</v>
       </c>
       <c r="D137" t="n">
-        <v>0.13</v>
+        <v>-0.1298</v>
       </c>
       <c r="E137" t="n">
-        <v>-1.1879</v>
+        <v>1.0222</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.2185</v>
+        <v>0.4831</v>
       </c>
     </row>
     <row r="138">
@@ -3955,22 +3961,22 @@
         <v>143</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.0968</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1.3054</v>
+        <v>1.7151</v>
       </c>
       <c r="D138" t="n">
-        <v>2.0254</v>
+        <v>0.13</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4898</v>
+        <v>-1.1879</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.6132</v>
+        <v>-0.2185</v>
       </c>
     </row>
     <row r="139">
@@ -3978,22 +3984,22 @@
         <v>144</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.2609</v>
+        <v>-1.0968</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.6711</v>
+        <v>1.3054</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3309</v>
+        <v>2.0254</v>
       </c>
       <c r="E139" t="n">
-        <v>0.1329</v>
+        <v>0.4898</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>1.0577</v>
+        <v>-0.6132</v>
       </c>
     </row>
     <row r="140">
@@ -4001,22 +4007,22 @@
         <v>145</v>
       </c>
       <c r="B140" t="n">
-        <v>0.7194</v>
+        <v>-0.2609</v>
       </c>
       <c r="C140" t="n">
-        <v>1.2432</v>
+        <v>-0.6711</v>
       </c>
       <c r="D140" t="n">
-        <v>3.2471</v>
+        <v>0.3309</v>
       </c>
       <c r="E140" t="n">
-        <v>1.2389</v>
+        <v>0.1329</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1.3956</v>
+        <v>1.0577</v>
       </c>
     </row>
     <row r="141">
@@ -4024,22 +4030,22 @@
         <v>146</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6494</v>
+        <v>0.7194</v>
       </c>
       <c r="C141" t="n">
-        <v>0.267</v>
+        <v>1.2432</v>
       </c>
       <c r="D141" t="n">
-        <v>1.1057</v>
+        <v>3.2471</v>
       </c>
       <c r="E141" t="n">
-        <v>-1.2675</v>
+        <v>1.2389</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>1.5484</v>
+        <v>1.3956</v>
       </c>
     </row>
     <row r="142">
@@ -4047,22 +4053,22 @@
         <v>147</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7097</v>
+        <v>0.6494</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>0.267</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3402</v>
+        <v>1.1057</v>
       </c>
       <c r="E142" t="n">
-        <v>0.6197</v>
+        <v>-1.2675</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0.6353</v>
+        <v>1.5484</v>
       </c>
     </row>
     <row r="143">
@@ -4070,22 +4076,22 @@
         <v>148</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.1281</v>
+        <v>0.7097</v>
       </c>
       <c r="C143" t="n">
-        <v>-1.3578</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>1.5742</v>
+        <v>0.3402</v>
       </c>
       <c r="E143" t="n">
-        <v>-3.9155</v>
+        <v>0.6197</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0.2525</v>
+        <v>0.6353</v>
       </c>
     </row>
     <row r="144">
@@ -4093,22 +4099,22 @@
         <v>149</v>
       </c>
       <c r="B144" t="n">
-        <v>0.2566</v>
+        <v>-0.1281</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.3225</v>
+        <v>-1.3578</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.3352</v>
+        <v>1.5742</v>
       </c>
       <c r="E144" t="n">
-        <v>1.1447</v>
+        <v>-3.9155</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0.2099</v>
+        <v>0.2525</v>
       </c>
     </row>
     <row r="145">
@@ -4116,22 +4122,68 @@
         <v>150</v>
       </c>
       <c r="B145" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-1.3225</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-1.3352</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.1447</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.2099</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" t="n">
         <v>-0.3839</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C146" t="n">
         <v>-2.0788</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D146" t="n">
         <v>-1.6433</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E146" t="n">
         <v>-0.2716</v>
       </c>
-      <c r="F145" t="n">
-        <v>0</v>
-      </c>
-      <c r="G145" t="n">
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
         <v>-1.3825</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.4496</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.1229</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-1.8919</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-0.6355</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-0.0425</v>
       </c>
     </row>
   </sheetData>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -552,6 +552,15 @@
   </si>
   <si>
     <t xml:space="preserve">2018-09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-17</t>
   </si>
 </sst>
 </file>
@@ -4888,6 +4897,75 @@
         <v>-0.2304</v>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -561,6 +561,99 @@
   </si>
   <si>
     <t xml:space="preserve">2018-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-30</t>
   </si>
 </sst>
 </file>
@@ -946,7 +1039,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0891</v>
+        <v>1.089</v>
       </c>
       <c r="C3" t="n">
         <v>0.8699</v>
@@ -1475,7 +1568,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.8119</v>
+        <v>-1.8118</v>
       </c>
       <c r="C26" t="n">
         <v>-2.5316</v>
@@ -1636,7 +1729,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1403</v>
+        <v>0.1402</v>
       </c>
       <c r="C33" t="n">
         <v>0.6552</v>
@@ -1705,7 +1798,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6241</v>
+        <v>0.6242</v>
       </c>
       <c r="C36" t="n">
         <v>-1.6459</v>
@@ -1935,7 +2028,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2782</v>
+        <v>0.2781</v>
       </c>
       <c r="C46" t="n">
         <v>-0.3705</v>
@@ -2694,22 +2787,22 @@
         <v>84</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>-0.2079</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>-3.0572</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>-0.7913</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>-1.2131</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>-0.8924</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>0.1387</v>
       </c>
     </row>
     <row r="80">
@@ -2717,22 +2810,22 @@
         <v>85</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>0.4167</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.3199</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>2.7835</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>2.0379</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1.385</v>
       </c>
     </row>
     <row r="81">
@@ -2878,7 +2971,7 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>1.1757</v>
+        <v>1.1756</v>
       </c>
       <c r="C87" t="n">
         <v>0.8376</v>
@@ -3131,22 +3224,22 @@
         <v>103</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>-0.0677</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-0.0942</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>-0.5067</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>-20.0671</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>-0.9369</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>0.2766</v>
       </c>
     </row>
     <row r="99">
@@ -3154,22 +3247,22 @@
         <v>104</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>-1.151</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>-2.4034</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>-0.2315</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>0.3147</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>-0.7812</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>-0.4138</v>
       </c>
     </row>
     <row r="100">
@@ -3200,22 +3293,22 @@
         <v>106</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.1365</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>2.1256</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>-0.9745</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>-3.0168</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>-0.7755</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>0.2765</v>
       </c>
     </row>
     <row r="102">
@@ -3223,22 +3316,22 @@
         <v>107</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>0.9543</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>2.2233</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1.8041</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>2.0668</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>0.6993</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>0.9191</v>
       </c>
     </row>
     <row r="103">
@@ -4902,22 +4995,22 @@
         <v>180</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>0.4476</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>2.2017</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>0.4795</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>-0.553</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>-0.1515</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>0.2771</v>
       </c>
     </row>
     <row r="176">
@@ -4925,22 +5018,22 @@
         <v>181</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>-0.6365</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>-1.048</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1.5376</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1.0658</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>0.0304</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>-0.1382</v>
       </c>
     </row>
     <row r="177">
@@ -4948,21 +5041,734 @@
         <v>182</v>
       </c>
       <c r="B177" t="n">
+        <v>0.4484</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-0.6472</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-1.2272</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-2.5676</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-1.9417</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-0.0922</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.1276</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3.5534</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.2688</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-1.6941</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-2.4134</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1.2927</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-3.3457</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.8272</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-2.6328</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0951</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.7293</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.3898</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.7337</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.7175</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3.0973</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.0633</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1.267</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.0623</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-3.9266</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.1431</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.2979</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.2234</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.6849</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-2.1758</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-2.4102</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-0.9524</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-0.875</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-0.4904</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-0.9276</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.1942</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-1.1577</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.2596</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1.0719</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.8065</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-0.1873</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.3529</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.1301</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.7992</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-1.3412</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.3556</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.3127</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-1.2768</v>
+      </c>
+      <c r="D185" t="n">
+        <v>3.7172</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-4.6175</v>
+      </c>
+      <c r="F185" t="n">
+        <v>-0.411</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.3543</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.3117</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-0.8231</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.1754</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-1.2225</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-0.6667</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-0.2648</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-1.1257</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.4446</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-2.4268</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.5347</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.7351</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2.4779</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-2.0873</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-0.4131</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.2051</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-0.4876</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.8249</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-0.2591</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.1292</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-1.4815</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.1515</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-1.0779</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-0.9277</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-3.1169</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-0.4516</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-4.6015</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-1.2649</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-2.3081</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-4.6174</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-2.4576</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-0.8425</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-6.2421</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-2.1522</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.0608</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.6432</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-0.5039</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-1.2418</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-3.5978</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-3.2207</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-1.1958</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-8.1736</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-3.453</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.6618</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-0.872</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-0.974</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-1.5385</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-0.989</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-0.8107</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-0.9205</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.6889</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-2.459</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-5.5833</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-2.5897</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.4904</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2.6543</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-2.2837</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-3.2213</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-1.3239</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.6457</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1.1843</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-0.8821</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.0708</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.6946</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.1082</v>
+      </c>
+      <c r="F196" t="n">
+        <v>3.9245</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.7022</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-0.0659</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-1.2031</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.0635</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-1.5615</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-2.5418</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1.9061</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>203</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="D198" t="n">
+        <v>4.3515</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-2.115</v>
+      </c>
+      <c r="F198" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2.3723</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.5185</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-2.7562</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-0.2453</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.5627</v>
+      </c>
+      <c r="F199" t="n">
+        <v>-2.5285</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-0.3565</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.5474</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-1.3808</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-1.0656</v>
+      </c>
+      <c r="E200" t="n">
+        <v>4.7001</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3.3248</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-0.0447</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.254</v>
+      </c>
+      <c r="C201" t="n">
+        <v>-3.3161</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-3.1483</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-1.4109</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-0.6011</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1.8792</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.1273</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-0.5716</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.5988</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-1.778</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.1067</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.0456</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-2.2886</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-2.9513</v>
+      </c>
+      <c r="D203" t="n">
+        <v>-2.6644</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-4.4592</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-2.6652</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-3.0082</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>209</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-0.7504</v>
+      </c>
+      <c r="D204" t="n">
+        <v>-0.4077</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-5.0601</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-0.4746</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-0.3759</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-1.0198</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.5571</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-0.6725</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-3.5775</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-0.9538</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-0.6604</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>211</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-1.7386</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-0.277</v>
+      </c>
+      <c r="D206" t="n">
+        <v>-4.0919</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2.0697</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.1481</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-0.4748</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>212</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.9174</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="D207" t="n">
+        <v>4.1743</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5.6874</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1.3314</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1.813</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>213</v>
+      </c>
+      <c r="B208" t="n">
         <v>0</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C208" t="n">
         <v>0</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D208" t="n">
         <v>0</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E208" t="n">
         <v>0</v>
       </c>
-      <c r="F177" t="n">
+      <c r="F208" t="n">
         <v>0</v>
       </c>
-      <c r="G177" t="n">
+      <c r="G208" t="n">
         <v>0</v>
       </c>
     </row>
